--- a/pred_ohlcv/54_21/2019-10-26 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 ETZ ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-121331.6124133333</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>71147.05388666672</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-9404.997013333283</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-9254.997013333283</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-82207.76111333328</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-82207.76111333328</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-87949.50361333328</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-23150.05611333327</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-23150.05611333327</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-23195.86431333327</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-22940.86431333327</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-22940.86431333327</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-23221.87731333327</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-23223.28871333327</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-109025.1528133333</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-110576.5029133333</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-113266.1429133333</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-111956.1429133333</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-111956.1429133333</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-111332.1429133333</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-218997.4660133333</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-218997.4660133333</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-226725.4310133333</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-226725.4310133333</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-244111.7278133333</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-133601.8508256621</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-133591.8508256621</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-133591.8508256621</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-133591.8508256621</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-213043.2624256621</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-213043.2624256621</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-209319.0603256621</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-219676.4603256621</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-219126.4603256621</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-219126.4603256621</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-219126.4603256621</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-231126.4603256621</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-231115.4603256621</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-230760.4603256621</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-232933.4603256621</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-217062.4603256621</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-217062.4603256621</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-217051.4603256621</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-227758.9430256621</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-247302.8206256621</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-247291.8206256621</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-247291.8206256621</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-247291.8206256621</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-257749.0882256621</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-224197.0322133333</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-179167.4042133333</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-142621.7941133333</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-146761.9302133333</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-146761.9302133333</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-146751.9302133333</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-146155.9843133333</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-146155.9843133333</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-330958.3427133333</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-339344.9208133333</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-339333.9208133333</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-339613.9208133333</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-339602.8556133333</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-339602.8556133333</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-339591.8556133333</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-275335.7892133333</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-275335.7892133333</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-275335.7892133333</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-244441.8608133333</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-244441.8608133333</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-287797.6287133333</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-275569.3915133333</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-275569.3915133333</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-275569.3915133333</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-275569.3915133333</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-443527.0302133333</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-443516.0302133333</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-443516.0302133333</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-464117.6368133333</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-464106.6368133333</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-464205.6368133333</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-439761.6368133333</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-433709.6368133333</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-381761.7394133333</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-381761.7394133333</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-361423.3611133333</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-361412.3611133333</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-361412.3611133333</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-361412.3611133333</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-361412.3611133333</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-373612.4624133333</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-374208.5667133333</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-370781.7010133333</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-377047.1068133333</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-387552.7871133333</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-631543.3788640182</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-523133.5374640182</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-494804.7925640182</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-492446.7925640182</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-471044.9061640182</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-471044.9061640182</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-507812.7861640182</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-430891.6714640182</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-332213.5772640182</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-146823.3118640182</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-146823.3118640182</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>124938.3453359818</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>557120.7768271583</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>557120.7768271583</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>552224.2499271582</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>538890.1092271582</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>617889.5776271583</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>530302.7901271583</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>584699.6443829447</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>779217.5161917683</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1035597.315091768</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1010291.407591768</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>976084.4019917684</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>976055.2201917684</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>939328.2523917684</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>946943.2567917684</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>946943.2567917684</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1112203.293891768</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1069710.816991769</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1151073.531291769</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1119577.302991769</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1119577.302991769</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>432649.5052079078</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>432630.0052079078</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>494198.1452079078</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-1159719.324992092</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-1159719.324992092</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-26 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 ETZ ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-121331.6124133333</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-22939.87731333327</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-23223.28871333327</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-109035.1528133333</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-110576.5029133333</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-110566.5029133333</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-110566.5029133333</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-113256.1429133333</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-226545.4310133333</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-226545.4310133333</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-226509.4310133333</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-243898.9848133333</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-267516.6113133333</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-267782.0023133333</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-255751.1688133333</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-133590.8508256621</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-219126.4603256621</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-378755.8054133333</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-382075.3484133333</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-384370.7871133333</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-430959.3664133333</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-631543.3788640182</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-523133.5374640182</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-494804.7925640182</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-492446.7925640182</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-471044.9061640182</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-471044.9061640182</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-507812.7861640182</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-430891.6714640182</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-332213.5772640182</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-146823.3118640182</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-146823.3118640182</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>124938.3453359818</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>557120.7768271583</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>557120.7768271583</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>552224.2499271582</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>538890.1092271582</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>617889.5776271583</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>530302.7901271583</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>584699.6443829447</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>779217.5161917683</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>934390.4303917683</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1173781.659191768</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1035597.315091768</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1010291.407591768</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>976084.4019917684</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>976055.2201917684</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>939328.2523917684</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>946943.2567917684</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>946943.2567917684</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1112203.293891768</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1069710.816991769</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1125698.838591769</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1151073.531291769</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1119577.302991769</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1119577.302991769</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>432649.5052079078</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>432630.0052079078</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>494198.1452079078</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-1159719.324992092</v>
       </c>
       <c r="H614">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-1159719.324992092</v>
       </c>
       <c r="H615">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
